--- a/1st_round_screening/ACE/iteration_2/data/labeled_norm_2.xlsx
+++ b/1st_round_screening/ACE/iteration_2/data/labeled_norm_2.xlsx
@@ -565,49 +565,49 @@
         <v>32</v>
       </c>
       <c r="B2" t="n">
-        <v>0.269</v>
+        <v>0.236</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="D2" t="n">
-        <v>0.237</v>
+        <v>0.161</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="G2" t="n">
-        <v>0.199</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.212</v>
+        <v>0.134</v>
       </c>
       <c r="I2" t="n">
-        <v>0.083</v>
+        <v>0.075</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.233</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.397</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0.384</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.219</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0.1612697306605048</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.003677573300660924</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0.2085624333180173</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.02417886845665356</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -644,13 +644,13 @@
         <v>33</v>
       </c>
       <c r="B3" t="n">
-        <v>0.368</v>
+        <v>0.343</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -662,31 +662,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.304</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.411</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.199</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0.1424139219549915</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.001960973584623762</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.3836447747404599</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.1171038866711226</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.3430000000000001</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>0.357</v>
+        <v>0.402</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.287</v>
+        <v>0.299</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -738,34 +738,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.213</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.596</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.404</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>0.2755942660047033</v>
+        <v>0.2313371107622332</v>
       </c>
       <c r="T4" t="n">
-        <v>0.005433072875005084</v>
+        <v>0.008673832118494497</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3254254263322437</v>
+        <v>0.2206990092629054</v>
       </c>
       <c r="V4" t="n">
-        <v>0.02593956551526219</v>
+        <v>0.04234771587082683</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.357</v>
+        <v>0.4020000000000001</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -802,13 +802,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="n">
-        <v>0.405</v>
+        <v>0.476</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.356</v>
+        <v>0.371</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.239</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.305</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.695</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -855,22 +855,22 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0.2726969605966297</v>
+        <v>0.2984118763487749</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002510373496789422</v>
+        <v>0.007863227779357841</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2972516750721521</v>
+        <v>0.2349082787475546</v>
       </c>
       <c r="V5" t="n">
-        <v>0.003958974906615262</v>
+        <v>0.03050159118343187</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4050000000000001</v>
+        <v>0.4759999999999999</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -881,49 +881,49 @@
         <v>36</v>
       </c>
       <c r="B6" t="n">
-        <v>0.189</v>
+        <v>0.524</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.153</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.187</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.155</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5610000000000001</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.299</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.75</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -934,22 +934,22 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0.296012363817973</v>
+        <v>0.2471749063958706</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004088638432111027</v>
+        <v>0.009397339807795339</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2779848565157981</v>
+        <v>0.2624967337043178</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003848894272577996</v>
+        <v>0.008046359890155563</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.189</v>
+        <v>0.5240000000000001</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>37</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385</v>
+        <v>0.74</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.615</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1013,22 +1013,22 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>0.2554599672086165</v>
+        <v>0.2159759889066113</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004598726014236425</v>
+        <v>0.01064897924026544</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3788228241443751</v>
+        <v>0.3326666697875577</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04939512300142981</v>
+        <v>0.02329405410565636</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0.385</v>
+        <v>0.74</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="n">
-        <v>0.302</v>
+        <v>0.505</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.302</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.251</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1072,16 +1072,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>0.2909507902778931</v>
+        <v>0.246727759601328</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002883849605123072</v>
+        <v>0.008389961029643924</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3316290668563726</v>
+        <v>0.3522080413341262</v>
       </c>
       <c r="V8" t="n">
-        <v>0.05668627189037797</v>
+        <v>0.0606802691386908</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>0.302</v>
+        <v>0.505</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1118,13 +1118,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="n">
-        <v>0.329</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.433</v>
       </c>
       <c r="D9" t="n">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1171,22 +1171,22 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>0.2674187611248569</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>0.008022058924971638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1767810875036935</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0.06343574827476704</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.329</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.34</v>
+        <v>0.573</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.427</v>
       </c>
       <c r="D10" t="n">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.337</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1230,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>0.2727138139968843</v>
+        <v>0.2407385862391307</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001036557770121896</v>
+        <v>0.004893344906615703</v>
       </c>
       <c r="U10" t="n">
-        <v>0.2546581569523548</v>
+        <v>0.2663602015895318</v>
       </c>
       <c r="V10" t="n">
-        <v>0.02665626433181158</v>
+        <v>0.08375585417269807</v>
       </c>
       <c r="W10" t="n">
         <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3400000000000001</v>
+        <v>0.573</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="n">
-        <v>0.348</v>
+        <v>0.411</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D11" t="n">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1291,34 +1291,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.129</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1329,22 +1329,22 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>0.275239238407148</v>
+        <v>0.02820665863263348</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002040534162802222</v>
+        <v>0.0006292334580485007</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2495454094558623</v>
+        <v>0.1495056591163664</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02612493465608246</v>
+        <v>0.03498642551819565</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0.348</v>
+        <v>0.411</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1355,22 +1355,22 @@
         <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>0.343</v>
+        <v>0.494</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="D12" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.322</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.637</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0.363</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.2878128541520064</v>
+        <v>0.0702639770725446</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0005080727600094707</v>
+        <v>0.004150322771052859</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3399349243744836</v>
+        <v>0.5336937988400553</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05907224061941747</v>
+        <v>0.02156669994151759</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3430000000000001</v>
+        <v>0.494</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>43</v>
       </c>
       <c r="B13" t="n">
-        <v>0.251</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.442</v>
       </c>
       <c r="D13" t="n">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.073</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1467,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1487,22 +1487,22 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.2758501982106392</v>
+        <v>0.2413104435604058</v>
       </c>
       <c r="T13" t="n">
-        <v>0.008687060878934026</v>
+        <v>0.006032211883721211</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2742984280435919</v>
+        <v>0.2237880817909364</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1331693760769237</v>
+        <v>0.04515899516292455</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0.251</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1513,22 +1513,22 @@
         <v>44</v>
       </c>
       <c r="B14" t="n">
-        <v>0.364</v>
+        <v>0.571</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="D14" t="n">
-        <v>0.353</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1566,22 +1566,22 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0.2538870705321419</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.01844640055055855</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0.2128998205053556</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>0.03633641015423662</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.571</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1592,10 +1592,10 @@
         <v>45</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0.578</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0.08333333333333333</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.0237565604920271</v>
+        <v>0.2644055116063013</v>
       </c>
       <c r="T15" t="n">
-        <v>0.00030818580169289</v>
+        <v>0.009377609820804603</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1089470241528073</v>
+        <v>0.2203712546258755</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01851101330020037</v>
+        <v>0.001070547810047507</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0.578</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>0.254</v>
+        <v>0.578</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="D16" t="n">
-        <v>0.265</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.339</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.117</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1704,16 +1704,16 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1724,22 +1724,22 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.2843709485070902</v>
+        <v>0.2368480754020953</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003770705571680226</v>
+        <v>0.00830642589112866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.2860439941540171</v>
+        <v>0.1996541493550152</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004281912006318653</v>
+        <v>0.09423332064931898</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.254</v>
+        <v>0.578</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1750,28 +1750,28 @@
         <v>47</v>
       </c>
       <c r="B17" t="n">
-        <v>0.188</v>
+        <v>0.578</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="D17" t="n">
-        <v>0.211</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.096</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.206</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.224</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1803,22 +1803,22 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0.246794756072026</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.000803510707021796</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0.271040830107915</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>0.02002269964405929</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>0.578</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
